--- a/sm_items.xlsx
+++ b/sm_items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GUESS\Guess_fMRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2B492B-DE60-466A-8356-796219FB0119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843837D7-E43D-47D6-8828-361DA8BD67D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="254">
   <si>
     <t>Cue</t>
   </si>
@@ -564,12 +564,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Kamin</t>
-  </si>
-  <si>
-    <t>Ziegel</t>
-  </si>
-  <si>
     <t>Kante</t>
   </si>
   <si>
@@ -609,9 +603,6 @@
     <t>Rose</t>
   </si>
   <si>
-    <t>Dorne</t>
-  </si>
-  <si>
     <t>Schauspielerin</t>
   </si>
   <si>
@@ -711,16 +702,103 @@
     <t>Brot</t>
   </si>
   <si>
-    <t>Hund</t>
-  </si>
-  <si>
     <t>Park</t>
   </si>
   <si>
     <t>Baum</t>
   </si>
   <si>
-    <t>Pfote</t>
+    <t>Fliegen</t>
+  </si>
+  <si>
+    <t>Flügel</t>
+  </si>
+  <si>
+    <t>Gleis</t>
+  </si>
+  <si>
+    <t>Bahnhof</t>
+  </si>
+  <si>
+    <t>Mund</t>
+  </si>
+  <si>
+    <t>Schmecken</t>
+  </si>
+  <si>
+    <t>Wanne</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Trinken</t>
+  </si>
+  <si>
+    <t>Bier</t>
+  </si>
+  <si>
+    <t>Verbrechen</t>
+  </si>
+  <si>
+    <t>Nachweisen</t>
+  </si>
+  <si>
+    <t>Geruch</t>
+  </si>
+  <si>
+    <t>Surfen</t>
+  </si>
+  <si>
+    <t>Strand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorne </t>
+  </si>
+  <si>
+    <t>Rose as mediator</t>
+  </si>
+  <si>
+    <t>Shiffe</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Gefängnis</t>
+  </si>
+  <si>
+    <t>Barren</t>
+  </si>
+  <si>
+    <t>Fahrrad</t>
+  </si>
+  <si>
+    <t>Hut</t>
+  </si>
+  <si>
+    <t>Diamant</t>
+  </si>
+  <si>
+    <t>Krone</t>
+  </si>
+  <si>
+    <t>Kastanien</t>
+  </si>
+  <si>
+    <t>Rösten</t>
+  </si>
+  <si>
+    <t>Nuss</t>
+  </si>
+  <si>
+    <t>Spielplatz</t>
+  </si>
+  <si>
+    <t>Nudeln</t>
+  </si>
+  <si>
+    <t>Pizza</t>
   </si>
 </sst>
 </file>
@@ -758,12 +836,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -778,78 +874,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1299,18 +1341,18 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1408,7 +1450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1436,7 +1478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +1492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1464,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1506,7 +1548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1520,7 +1562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -1548,7 +1590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -1562,7 +1604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1576,7 +1618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -1590,7 +1632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
@@ -1604,7 +1646,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1618,7 +1660,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -1632,7 +1674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>92</v>
       </c>
@@ -1646,7 +1688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -1660,602 +1702,592 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" t="s">
-        <v>226</v>
-      </c>
+      <c r="D60" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D79">
-    <cfRule type="duplicateValues" dxfId="16" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2264,15 +2296,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498068-5777-473E-A8DC-D64FC3346EE7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2280,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2291,29 +2323,29 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -2321,7 +2353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -2329,12 +2361,23 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
